--- a/DataTable/101文本数据.xlsx
+++ b/DataTable/101文本数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB174365-BB45-487A-839F-13DEDFAEC681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F17D1A-1504-4675-9378-5435A02B6690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DataId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,19 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"暂未开放！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"测试用项目"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>101000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未开放！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +405,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,23 +421,23 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -445,13 +445,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
